--- a/Dự Án/BÁO GIÁ/DỰ ÁN THIẾT KẾ THE NEW GYM(11-2019).xlsx
+++ b/Dự Án/BÁO GIÁ/DỰ ÁN THIẾT KẾ THE NEW GYM(11-2019).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/van/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/van/Documents/Hành chính Jet Art/JETART/Dự Án/BÁO GIÁ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF576F64-E6A6-5E43-BED1-6CEC62A241F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898C0411-4D91-B448-836E-3FDEC32692C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22980" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22980" windowHeight="13340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dự án thiết kế" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="133">
   <si>
     <t>Địa chỉ:</t>
   </si>
@@ -428,6 +428,12 @@
   </si>
   <si>
     <t>TRẠNG THÁI</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>THIẾT KẾ WEBSITE DESTOP THE NEW GYM</t>
   </si>
 </sst>
 </file>
@@ -2511,7 +2517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -5991,10 +5997,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4281F0EB-49EB-4E4A-8C84-E014261860AB}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6153,7 +6159,7 @@
     </row>
     <row r="15" spans="1:6" s="48" customFormat="1" ht="50" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="244" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B15" s="245"/>
       <c r="C15" s="245"/>
@@ -6171,7 +6177,7 @@
       <c r="E16" s="247"/>
       <c r="F16" s="247"/>
     </row>
-    <row r="17" spans="1:6" ht="16" thickBot="1">
+    <row r="17" spans="1:8" ht="16" thickBot="1">
       <c r="A17" s="12"/>
       <c r="B17" s="154"/>
       <c r="C17" s="40"/>
@@ -6179,7 +6185,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" s="47" customFormat="1" ht="41" customHeight="1" thickBot="1">
+    <row r="18" spans="1:8" s="47" customFormat="1" ht="41" customHeight="1" thickBot="1">
       <c r="A18" s="44" t="s">
         <v>11</v>
       </c>
@@ -6199,7 +6205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1">
+    <row r="19" spans="1:8" ht="30" customHeight="1">
       <c r="A19" s="49" t="s">
         <v>16</v>
       </c>
@@ -6217,7 +6223,7 @@
       </c>
       <c r="F19" s="175"/>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1">
+    <row r="20" spans="1:8" ht="30" customHeight="1">
       <c r="A20" s="50" t="s">
         <v>17</v>
       </c>
@@ -6234,8 +6240,11 @@
         <v>129</v>
       </c>
       <c r="F20" s="176"/>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1">
+      <c r="H20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1">
       <c r="A21" s="50" t="s">
         <v>18</v>
       </c>
@@ -6253,7 +6262,7 @@
       </c>
       <c r="F21" s="176"/>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1">
+    <row r="22" spans="1:8" ht="30" customHeight="1">
       <c r="A22" s="50" t="s">
         <v>19</v>
       </c>
@@ -6271,7 +6280,7 @@
       </c>
       <c r="F22" s="176"/>
     </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="50" t="s">
         <v>20</v>
       </c>
@@ -6289,7 +6298,7 @@
       </c>
       <c r="F23" s="176"/>
     </row>
-    <row r="24" spans="1:6" ht="35" customHeight="1" thickBot="1">
+    <row r="24" spans="1:8" ht="35" customHeight="1" thickBot="1">
       <c r="A24" s="248" t="s">
         <v>35</v>
       </c>
@@ -6308,7 +6317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:8">
       <c r="A25" s="16"/>
       <c r="B25" s="155"/>
       <c r="C25" s="16"/>
@@ -6316,7 +6325,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:8">
       <c r="A26" s="16"/>
       <c r="B26" s="155"/>
       <c r="C26" s="16"/>
@@ -6324,7 +6333,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" spans="1:6" ht="16">
+    <row r="27" spans="1:8" ht="16">
       <c r="A27" s="93"/>
       <c r="B27" s="161"/>
       <c r="C27" s="93"/>
@@ -6332,7 +6341,7 @@
       <c r="E27" s="93"/>
       <c r="F27" s="121"/>
     </row>
-    <row r="28" spans="1:6" ht="16">
+    <row r="28" spans="1:8" ht="16">
       <c r="A28" s="92" t="s">
         <v>38</v>
       </c>
@@ -6344,7 +6353,7 @@
       <c r="E28" s="242"/>
       <c r="F28" s="242"/>
     </row>
-    <row r="29" spans="1:6" ht="16">
+    <row r="29" spans="1:8" ht="16">
       <c r="A29" s="93"/>
       <c r="B29" s="243" t="s">
         <v>40</v>
@@ -6354,7 +6363,7 @@
       <c r="E29" s="243"/>
       <c r="F29" s="243"/>
     </row>
-    <row r="30" spans="1:6" ht="16">
+    <row r="30" spans="1:8" ht="16">
       <c r="A30" s="94"/>
       <c r="B30" s="67" t="s">
         <v>41</v>
@@ -6364,7 +6373,7 @@
       <c r="E30" s="96"/>
       <c r="F30" s="96"/>
     </row>
-    <row r="31" spans="1:6" ht="16">
+    <row r="31" spans="1:8" ht="16">
       <c r="A31" s="94"/>
       <c r="B31" s="67"/>
       <c r="C31" s="95"/>
@@ -6372,7 +6381,7 @@
       <c r="E31" s="96"/>
       <c r="F31" s="96"/>
     </row>
-    <row r="32" spans="1:6" ht="16">
+    <row r="32" spans="1:8" ht="16">
       <c r="A32" s="94"/>
       <c r="B32" s="162"/>
       <c r="C32" s="97"/>
